--- a/bin/save_data/editor_field/编辑器_编辑器配置.xlsx
+++ b/bin/save_data/editor_field/编辑器_编辑器配置.xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="editor_field" sheetId="2" r:id="rId2"/>
+    <sheet name="editor_field" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="506">
   <si>
     <t>分组</t>
     <phoneticPr fontId="1"/>
@@ -1977,6 +1976,38 @@
   </si>
   <si>
     <t>该页签包含的表格</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器配置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>master_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主表</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2346,17 +2377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O54"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4283,6 +4304,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>498</v>
+      </c>
+      <c r="B54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C54">
+        <v>80</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>500</v>
+      </c>
+      <c r="F54" t="s">
+        <v>501</v>
+      </c>
+      <c r="G54" t="s">
+        <v>502</v>
+      </c>
+      <c r="J54" t="s">
+        <v>503</v>
+      </c>
+      <c r="K54" t="s">
+        <v>504</v>
+      </c>
+      <c r="L54" t="s">
+        <v>505</v>
+      </c>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/bin/save_data/editor_field/编辑器_编辑器配置.xlsx
+++ b/bin/save_data/editor_field/编辑器_编辑器配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="515">
   <si>
     <t>分组</t>
     <phoneticPr fontId="1"/>
@@ -2040,6 +2040,42 @@
   </si>
   <si>
     <t>主表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑器配置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editor_menu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exec_after_save</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存后执行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是否在保存后执行</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2377,7 +2413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O55"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4339,6 +4375,44 @@
         <v>1</v>
       </c>
     </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>506</v>
+      </c>
+      <c r="B55" t="s">
+        <v>507</v>
+      </c>
+      <c r="C55">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>508</v>
+      </c>
+      <c r="E55" t="s">
+        <v>509</v>
+      </c>
+      <c r="F55" t="s">
+        <v>510</v>
+      </c>
+      <c r="G55" t="s">
+        <v>511</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>512</v>
+      </c>
+      <c r="K55" t="s">
+        <v>513</v>
+      </c>
+      <c r="L55" t="s">
+        <v>514</v>
+      </c>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
